--- a/80_補足資料/D-003_レイアウト関連テーブルのデータ構造【DB】.xlsx
+++ b/80_補足資料/D-003_レイアウト関連テーブルのデータ構造【DB】.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -101,10 +101,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LAYOUT_ALIAS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>listLayout001</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -116,14 +112,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>listLayout001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LAYOUT_TYPE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>list</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -174,10 +162,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LAYOUT_OBJ_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>7</t>
   </si>
   <si>
@@ -187,19 +171,11 @@
     <t>9</t>
   </si>
   <si>
-    <t>LAYOUT_OBJ_TYPE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>txt</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>img</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>detailLayout001</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -564,6 +540,78 @@
   </si>
   <si>
     <t xml:space="preserve"> この部分を「list」として定義する</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALIAS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TYPE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ListLayout001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DetailLayout001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ListGrp01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ListGrp02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MainGrp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Img01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Img02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Img</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Txt01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Txt02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Txt02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>List</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jun-nakashima</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015/1/23</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2146,124 +2194,124 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2581,7 +2629,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -2607,7 +2655,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="4"/>
       <c r="AA1" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AB1" s="6"/>
       <c r="AC1" s="6"/>
@@ -2662,7 +2710,9 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="4"/>
-      <c r="AA2" s="5"/>
+      <c r="AA2" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
       <c r="AD2" s="6"/>
@@ -2691,7 +2741,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="38" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -2716,7 +2766,9 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="4"/>
-      <c r="AA3" s="38"/>
+      <c r="AA3" s="38" t="s">
+        <v>101</v>
+      </c>
       <c r="AB3" s="6"/>
       <c r="AC3" s="6"/>
       <c r="AD3" s="6"/>
@@ -2888,12 +2940,12 @@
         <v>8</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -2966,7 +3018,7 @@
     <row r="12" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="28"/>
       <c r="C12" s="26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
@@ -2984,7 +3036,7 @@
       <c r="Q12" s="26"/>
       <c r="R12" s="26"/>
       <c r="S12" s="26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="T12" s="26"/>
       <c r="U12" s="26"/>
@@ -3059,7 +3111,7 @@
       <c r="R14" s="26"/>
       <c r="S14" s="17"/>
       <c r="T14" s="101" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="U14" s="18"/>
       <c r="V14" s="18"/>
@@ -3115,37 +3167,37 @@
       <c r="B16" s="28"/>
       <c r="C16" s="17"/>
       <c r="D16" s="78"/>
-      <c r="E16" s="159" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="160"/>
-      <c r="L16" s="160"/>
-      <c r="M16" s="160"/>
-      <c r="N16" s="160"/>
-      <c r="O16" s="161"/>
+      <c r="E16" s="153" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
+      <c r="K16" s="154"/>
+      <c r="L16" s="154"/>
+      <c r="M16" s="154"/>
+      <c r="N16" s="154"/>
+      <c r="O16" s="155"/>
       <c r="P16" s="69"/>
       <c r="Q16" s="19"/>
       <c r="R16" s="26"/>
       <c r="S16" s="17"/>
       <c r="T16" s="96"/>
-      <c r="U16" s="137" t="s">
-        <v>43</v>
-      </c>
-      <c r="V16" s="138"/>
-      <c r="W16" s="138"/>
-      <c r="X16" s="138"/>
-      <c r="Y16" s="138"/>
-      <c r="Z16" s="138"/>
-      <c r="AA16" s="138"/>
-      <c r="AB16" s="138"/>
-      <c r="AC16" s="138"/>
-      <c r="AD16" s="138"/>
-      <c r="AE16" s="139"/>
+      <c r="U16" s="131" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16" s="132"/>
+      <c r="W16" s="132"/>
+      <c r="X16" s="132"/>
+      <c r="Y16" s="132"/>
+      <c r="Z16" s="132"/>
+      <c r="AA16" s="132"/>
+      <c r="AB16" s="132"/>
+      <c r="AC16" s="132"/>
+      <c r="AD16" s="132"/>
+      <c r="AE16" s="133"/>
       <c r="AF16" s="97"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="33"/>
@@ -3170,17 +3222,17 @@
       <c r="R17" s="26"/>
       <c r="S17" s="17"/>
       <c r="T17" s="96"/>
-      <c r="U17" s="140"/>
-      <c r="V17" s="141"/>
-      <c r="W17" s="141"/>
-      <c r="X17" s="141"/>
-      <c r="Y17" s="141"/>
-      <c r="Z17" s="141"/>
-      <c r="AA17" s="141"/>
-      <c r="AB17" s="141"/>
-      <c r="AC17" s="141"/>
-      <c r="AD17" s="141"/>
-      <c r="AE17" s="142"/>
+      <c r="U17" s="134"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="135"/>
+      <c r="Z17" s="135"/>
+      <c r="AA17" s="135"/>
+      <c r="AB17" s="135"/>
+      <c r="AC17" s="135"/>
+      <c r="AD17" s="135"/>
+      <c r="AE17" s="136"/>
       <c r="AF17" s="97"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="33"/>
@@ -3189,37 +3241,37 @@
       <c r="B18" s="28"/>
       <c r="C18" s="17"/>
       <c r="D18" s="78"/>
-      <c r="E18" s="153" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="154"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="154"/>
-      <c r="I18" s="155"/>
+      <c r="E18" s="147" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="148"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="149"/>
       <c r="J18" s="18"/>
-      <c r="K18" s="153" t="s">
-        <v>44</v>
-      </c>
-      <c r="L18" s="154"/>
-      <c r="M18" s="154"/>
-      <c r="N18" s="154"/>
-      <c r="O18" s="155"/>
+      <c r="K18" s="147" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="148"/>
+      <c r="M18" s="148"/>
+      <c r="N18" s="148"/>
+      <c r="O18" s="149"/>
       <c r="P18" s="69"/>
       <c r="Q18" s="19"/>
       <c r="R18" s="26"/>
       <c r="S18" s="17"/>
       <c r="T18" s="96"/>
-      <c r="U18" s="140"/>
-      <c r="V18" s="141"/>
-      <c r="W18" s="141"/>
-      <c r="X18" s="141"/>
-      <c r="Y18" s="141"/>
-      <c r="Z18" s="141"/>
-      <c r="AA18" s="141"/>
-      <c r="AB18" s="141"/>
-      <c r="AC18" s="141"/>
-      <c r="AD18" s="141"/>
-      <c r="AE18" s="142"/>
+      <c r="U18" s="134"/>
+      <c r="V18" s="135"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="135"/>
+      <c r="Y18" s="135"/>
+      <c r="Z18" s="135"/>
+      <c r="AA18" s="135"/>
+      <c r="AB18" s="135"/>
+      <c r="AC18" s="135"/>
+      <c r="AD18" s="135"/>
+      <c r="AE18" s="136"/>
       <c r="AF18" s="97"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="33"/>
@@ -3228,33 +3280,33 @@
       <c r="B19" s="28"/>
       <c r="C19" s="17"/>
       <c r="D19" s="78"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
-      <c r="I19" s="158"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="152"/>
       <c r="J19" s="18"/>
-      <c r="K19" s="156"/>
-      <c r="L19" s="157"/>
-      <c r="M19" s="157"/>
-      <c r="N19" s="157"/>
-      <c r="O19" s="158"/>
+      <c r="K19" s="150"/>
+      <c r="L19" s="151"/>
+      <c r="M19" s="151"/>
+      <c r="N19" s="151"/>
+      <c r="O19" s="152"/>
       <c r="P19" s="69"/>
       <c r="Q19" s="19"/>
       <c r="R19" s="26"/>
       <c r="S19" s="17"/>
       <c r="T19" s="96"/>
-      <c r="U19" s="140"/>
-      <c r="V19" s="141"/>
-      <c r="W19" s="141"/>
-      <c r="X19" s="141"/>
-      <c r="Y19" s="141"/>
-      <c r="Z19" s="141"/>
-      <c r="AA19" s="141"/>
-      <c r="AB19" s="141"/>
-      <c r="AC19" s="141"/>
-      <c r="AD19" s="141"/>
-      <c r="AE19" s="142"/>
+      <c r="U19" s="134"/>
+      <c r="V19" s="135"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="135"/>
+      <c r="Y19" s="135"/>
+      <c r="Z19" s="135"/>
+      <c r="AA19" s="135"/>
+      <c r="AB19" s="135"/>
+      <c r="AC19" s="135"/>
+      <c r="AD19" s="135"/>
+      <c r="AE19" s="136"/>
       <c r="AF19" s="97"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="33"/>
@@ -3279,17 +3331,17 @@
       <c r="R20" s="26"/>
       <c r="S20" s="17"/>
       <c r="T20" s="96"/>
-      <c r="U20" s="143"/>
-      <c r="V20" s="144"/>
-      <c r="W20" s="144"/>
-      <c r="X20" s="144"/>
-      <c r="Y20" s="144"/>
-      <c r="Z20" s="144"/>
-      <c r="AA20" s="144"/>
-      <c r="AB20" s="144"/>
-      <c r="AC20" s="144"/>
-      <c r="AD20" s="144"/>
-      <c r="AE20" s="145"/>
+      <c r="U20" s="137"/>
+      <c r="V20" s="138"/>
+      <c r="W20" s="138"/>
+      <c r="X20" s="138"/>
+      <c r="Y20" s="138"/>
+      <c r="Z20" s="138"/>
+      <c r="AA20" s="138"/>
+      <c r="AB20" s="138"/>
+      <c r="AC20" s="138"/>
+      <c r="AD20" s="138"/>
+      <c r="AE20" s="139"/>
       <c r="AF20" s="97"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="33"/>
@@ -3351,19 +3403,19 @@
       <c r="R22" s="26"/>
       <c r="S22" s="17"/>
       <c r="T22" s="96"/>
-      <c r="U22" s="137" t="s">
-        <v>52</v>
-      </c>
-      <c r="V22" s="138"/>
-      <c r="W22" s="138"/>
-      <c r="X22" s="138"/>
-      <c r="Y22" s="138"/>
-      <c r="Z22" s="138"/>
-      <c r="AA22" s="138"/>
-      <c r="AB22" s="138"/>
-      <c r="AC22" s="138"/>
-      <c r="AD22" s="138"/>
-      <c r="AE22" s="139"/>
+      <c r="U22" s="131" t="s">
+        <v>46</v>
+      </c>
+      <c r="V22" s="132"/>
+      <c r="W22" s="132"/>
+      <c r="X22" s="132"/>
+      <c r="Y22" s="132"/>
+      <c r="Z22" s="132"/>
+      <c r="AA22" s="132"/>
+      <c r="AB22" s="132"/>
+      <c r="AC22" s="132"/>
+      <c r="AD22" s="132"/>
+      <c r="AE22" s="133"/>
       <c r="AF22" s="97"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="33"/>
@@ -3388,17 +3440,17 @@
       <c r="R23" s="26"/>
       <c r="S23" s="17"/>
       <c r="T23" s="96"/>
-      <c r="U23" s="140"/>
-      <c r="V23" s="141"/>
-      <c r="W23" s="141"/>
-      <c r="X23" s="141"/>
-      <c r="Y23" s="141"/>
-      <c r="Z23" s="141"/>
-      <c r="AA23" s="141"/>
-      <c r="AB23" s="141"/>
-      <c r="AC23" s="141"/>
-      <c r="AD23" s="141"/>
-      <c r="AE23" s="142"/>
+      <c r="U23" s="134"/>
+      <c r="V23" s="135"/>
+      <c r="W23" s="135"/>
+      <c r="X23" s="135"/>
+      <c r="Y23" s="135"/>
+      <c r="Z23" s="135"/>
+      <c r="AA23" s="135"/>
+      <c r="AB23" s="135"/>
+      <c r="AC23" s="135"/>
+      <c r="AD23" s="135"/>
+      <c r="AE23" s="136"/>
       <c r="AF23" s="97"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="33"/>
@@ -3407,37 +3459,37 @@
       <c r="B24" s="28"/>
       <c r="C24" s="17"/>
       <c r="D24" s="82"/>
-      <c r="E24" s="165" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="166"/>
+      <c r="E24" s="159" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24" s="160"/>
       <c r="G24" s="18"/>
-      <c r="H24" s="162" t="s">
-        <v>42</v>
-      </c>
-      <c r="I24" s="163"/>
-      <c r="J24" s="163"/>
-      <c r="K24" s="163"/>
-      <c r="L24" s="163"/>
-      <c r="M24" s="163"/>
-      <c r="N24" s="163"/>
-      <c r="O24" s="164"/>
+      <c r="H24" s="156" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="157"/>
+      <c r="J24" s="157"/>
+      <c r="K24" s="157"/>
+      <c r="L24" s="157"/>
+      <c r="M24" s="157"/>
+      <c r="N24" s="157"/>
+      <c r="O24" s="158"/>
       <c r="P24" s="72"/>
       <c r="Q24" s="19"/>
       <c r="R24" s="26"/>
       <c r="S24" s="17"/>
       <c r="T24" s="96"/>
-      <c r="U24" s="140"/>
-      <c r="V24" s="141"/>
-      <c r="W24" s="141"/>
-      <c r="X24" s="141"/>
-      <c r="Y24" s="141"/>
-      <c r="Z24" s="141"/>
-      <c r="AA24" s="141"/>
-      <c r="AB24" s="141"/>
-      <c r="AC24" s="141"/>
-      <c r="AD24" s="141"/>
-      <c r="AE24" s="142"/>
+      <c r="U24" s="134"/>
+      <c r="V24" s="135"/>
+      <c r="W24" s="135"/>
+      <c r="X24" s="135"/>
+      <c r="Y24" s="135"/>
+      <c r="Z24" s="135"/>
+      <c r="AA24" s="135"/>
+      <c r="AB24" s="135"/>
+      <c r="AC24" s="135"/>
+      <c r="AD24" s="135"/>
+      <c r="AE24" s="136"/>
       <c r="AF24" s="97"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="33"/>
@@ -3446,8 +3498,8 @@
       <c r="B25" s="28"/>
       <c r="C25" s="17"/>
       <c r="D25" s="82"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="168"/>
+      <c r="E25" s="161"/>
+      <c r="F25" s="162"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
@@ -3462,17 +3514,17 @@
       <c r="R25" s="26"/>
       <c r="S25" s="17"/>
       <c r="T25" s="96"/>
-      <c r="U25" s="140"/>
-      <c r="V25" s="141"/>
-      <c r="W25" s="141"/>
-      <c r="X25" s="141"/>
-      <c r="Y25" s="141"/>
-      <c r="Z25" s="141"/>
-      <c r="AA25" s="141"/>
-      <c r="AB25" s="141"/>
-      <c r="AC25" s="141"/>
-      <c r="AD25" s="141"/>
-      <c r="AE25" s="142"/>
+      <c r="U25" s="134"/>
+      <c r="V25" s="135"/>
+      <c r="W25" s="135"/>
+      <c r="X25" s="135"/>
+      <c r="Y25" s="135"/>
+      <c r="Z25" s="135"/>
+      <c r="AA25" s="135"/>
+      <c r="AB25" s="135"/>
+      <c r="AC25" s="135"/>
+      <c r="AD25" s="135"/>
+      <c r="AE25" s="136"/>
       <c r="AF25" s="97"/>
       <c r="AG25" s="19"/>
       <c r="AH25" s="33"/>
@@ -3481,35 +3533,35 @@
       <c r="B26" s="28"/>
       <c r="C26" s="17"/>
       <c r="D26" s="82"/>
-      <c r="E26" s="169"/>
-      <c r="F26" s="170"/>
+      <c r="E26" s="163"/>
+      <c r="F26" s="164"/>
       <c r="G26" s="18"/>
-      <c r="H26" s="162" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" s="163"/>
-      <c r="J26" s="163"/>
-      <c r="K26" s="163"/>
-      <c r="L26" s="163"/>
-      <c r="M26" s="163"/>
-      <c r="N26" s="163"/>
-      <c r="O26" s="164"/>
+      <c r="H26" s="156" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="157"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="157"/>
+      <c r="L26" s="157"/>
+      <c r="M26" s="157"/>
+      <c r="N26" s="157"/>
+      <c r="O26" s="158"/>
       <c r="P26" s="72"/>
       <c r="Q26" s="19"/>
       <c r="R26" s="26"/>
       <c r="S26" s="17"/>
       <c r="T26" s="96"/>
-      <c r="U26" s="140"/>
-      <c r="V26" s="141"/>
-      <c r="W26" s="141"/>
-      <c r="X26" s="141"/>
-      <c r="Y26" s="141"/>
-      <c r="Z26" s="141"/>
-      <c r="AA26" s="141"/>
-      <c r="AB26" s="141"/>
-      <c r="AC26" s="141"/>
-      <c r="AD26" s="141"/>
-      <c r="AE26" s="142"/>
+      <c r="U26" s="134"/>
+      <c r="V26" s="135"/>
+      <c r="W26" s="135"/>
+      <c r="X26" s="135"/>
+      <c r="Y26" s="135"/>
+      <c r="Z26" s="135"/>
+      <c r="AA26" s="135"/>
+      <c r="AB26" s="135"/>
+      <c r="AC26" s="135"/>
+      <c r="AD26" s="135"/>
+      <c r="AE26" s="136"/>
       <c r="AF26" s="97"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="33"/>
@@ -3534,17 +3586,17 @@
       <c r="R27" s="26"/>
       <c r="S27" s="17"/>
       <c r="T27" s="96"/>
-      <c r="U27" s="143"/>
-      <c r="V27" s="144"/>
-      <c r="W27" s="144"/>
-      <c r="X27" s="144"/>
-      <c r="Y27" s="144"/>
-      <c r="Z27" s="144"/>
-      <c r="AA27" s="144"/>
-      <c r="AB27" s="144"/>
-      <c r="AC27" s="144"/>
-      <c r="AD27" s="144"/>
-      <c r="AE27" s="145"/>
+      <c r="U27" s="137"/>
+      <c r="V27" s="138"/>
+      <c r="W27" s="138"/>
+      <c r="X27" s="138"/>
+      <c r="Y27" s="138"/>
+      <c r="Z27" s="138"/>
+      <c r="AA27" s="138"/>
+      <c r="AB27" s="138"/>
+      <c r="AC27" s="138"/>
+      <c r="AD27" s="138"/>
+      <c r="AE27" s="139"/>
       <c r="AF27" s="97"/>
       <c r="AG27" s="19"/>
       <c r="AH27" s="33"/>
@@ -3553,21 +3605,21 @@
       <c r="B28" s="28"/>
       <c r="C28" s="17"/>
       <c r="D28" s="82"/>
-      <c r="E28" s="165" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="166"/>
+      <c r="E28" s="159" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="160"/>
       <c r="G28" s="18"/>
-      <c r="H28" s="162" t="s">
-        <v>42</v>
-      </c>
-      <c r="I28" s="163"/>
-      <c r="J28" s="163"/>
-      <c r="K28" s="163"/>
-      <c r="L28" s="163"/>
-      <c r="M28" s="163"/>
-      <c r="N28" s="163"/>
-      <c r="O28" s="164"/>
+      <c r="H28" s="156" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="157"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="157"/>
+      <c r="M28" s="157"/>
+      <c r="N28" s="157"/>
+      <c r="O28" s="158"/>
       <c r="P28" s="72"/>
       <c r="Q28" s="19"/>
       <c r="R28" s="26"/>
@@ -3592,8 +3644,8 @@
       <c r="B29" s="28"/>
       <c r="C29" s="17"/>
       <c r="D29" s="82"/>
-      <c r="E29" s="167"/>
-      <c r="F29" s="168"/>
+      <c r="E29" s="161"/>
+      <c r="F29" s="162"/>
       <c r="G29" s="18"/>
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
@@ -3627,19 +3679,19 @@
       <c r="B30" s="28"/>
       <c r="C30" s="17"/>
       <c r="D30" s="82"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="170"/>
+      <c r="E30" s="163"/>
+      <c r="F30" s="164"/>
       <c r="G30" s="18"/>
-      <c r="H30" s="162" t="s">
-        <v>45</v>
-      </c>
-      <c r="I30" s="163"/>
-      <c r="J30" s="163"/>
-      <c r="K30" s="163"/>
-      <c r="L30" s="163"/>
-      <c r="M30" s="163"/>
-      <c r="N30" s="163"/>
-      <c r="O30" s="164"/>
+      <c r="H30" s="156" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="157"/>
+      <c r="M30" s="157"/>
+      <c r="N30" s="157"/>
+      <c r="O30" s="158"/>
       <c r="P30" s="72"/>
       <c r="Q30" s="19"/>
       <c r="R30" s="26"/>
@@ -3730,7 +3782,7 @@
       <c r="AG32" s="26"/>
       <c r="AH32" s="33"/>
     </row>
-    <row r="33" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="28"/>
       <c r="C33" s="17"/>
       <c r="D33" s="84" t="s">
@@ -3767,7 +3819,7 @@
       <c r="AG33" s="26"/>
       <c r="AH33" s="33"/>
     </row>
-    <row r="34" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="28"/>
       <c r="C34" s="17"/>
       <c r="D34" s="85"/>
@@ -3802,25 +3854,25 @@
       <c r="AG34" s="26"/>
       <c r="AH34" s="33"/>
     </row>
-    <row r="35" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="28"/>
       <c r="C35" s="17"/>
       <c r="D35" s="86"/>
-      <c r="E35" s="149" t="s">
-        <v>43</v>
-      </c>
-      <c r="F35" s="150"/>
+      <c r="E35" s="143" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="144"/>
       <c r="G35" s="26"/>
-      <c r="H35" s="146" t="s">
-        <v>42</v>
-      </c>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="147"/>
-      <c r="L35" s="147"/>
-      <c r="M35" s="147"/>
-      <c r="N35" s="147"/>
-      <c r="O35" s="148"/>
+      <c r="H35" s="140" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" s="141"/>
+      <c r="J35" s="141"/>
+      <c r="K35" s="141"/>
+      <c r="L35" s="141"/>
+      <c r="M35" s="141"/>
+      <c r="N35" s="141"/>
+      <c r="O35" s="142"/>
       <c r="P35" s="75"/>
       <c r="Q35" s="19"/>
       <c r="R35" s="26"/>
@@ -3841,12 +3893,12 @@
       <c r="AG35" s="26"/>
       <c r="AH35" s="33"/>
     </row>
-    <row r="36" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="28"/>
       <c r="C36" s="17"/>
       <c r="D36" s="86"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="152"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="146"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
@@ -3876,7 +3928,7 @@
       <c r="AG36" s="26"/>
       <c r="AH36" s="33"/>
     </row>
-    <row r="37" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="28"/>
       <c r="C37" s="17"/>
       <c r="D37" s="86"/>
@@ -3911,25 +3963,25 @@
       <c r="AG37" s="26"/>
       <c r="AH37" s="33"/>
     </row>
-    <row r="38" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="28"/>
       <c r="C38" s="17"/>
       <c r="D38" s="86"/>
-      <c r="E38" s="149" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="150"/>
+      <c r="E38" s="143" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="144"/>
       <c r="G38" s="18"/>
-      <c r="H38" s="146" t="s">
-        <v>42</v>
-      </c>
-      <c r="I38" s="147"/>
-      <c r="J38" s="147"/>
-      <c r="K38" s="147"/>
-      <c r="L38" s="147"/>
-      <c r="M38" s="147"/>
-      <c r="N38" s="147"/>
-      <c r="O38" s="148"/>
+      <c r="H38" s="140" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" s="141"/>
+      <c r="J38" s="141"/>
+      <c r="K38" s="141"/>
+      <c r="L38" s="141"/>
+      <c r="M38" s="141"/>
+      <c r="N38" s="141"/>
+      <c r="O38" s="142"/>
       <c r="P38" s="75"/>
       <c r="Q38" s="19"/>
       <c r="R38" s="26"/>
@@ -3950,12 +4002,12 @@
       <c r="AG38" s="26"/>
       <c r="AH38" s="33"/>
     </row>
-    <row r="39" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="28"/>
       <c r="C39" s="17"/>
       <c r="D39" s="86"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="152"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="146"/>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
@@ -3985,7 +4037,7 @@
       <c r="AG39" s="26"/>
       <c r="AH39" s="33"/>
     </row>
-    <row r="40" spans="2:44" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:45" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B40" s="28"/>
       <c r="C40" s="17"/>
       <c r="D40" s="65"/>
@@ -4020,7 +4072,7 @@
       <c r="AG40" s="26"/>
       <c r="AH40" s="33"/>
     </row>
-    <row r="41" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="28"/>
       <c r="C41" s="23"/>
       <c r="D41" s="24"/>
@@ -4055,7 +4107,7 @@
       <c r="AG41" s="26"/>
       <c r="AH41" s="33"/>
     </row>
-    <row r="42" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="34"/>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
@@ -4090,9 +4142,9 @@
       <c r="AG42" s="29"/>
       <c r="AH42" s="35"/>
     </row>
-    <row r="44" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -4133,11 +4185,12 @@
       <c r="AM44" s="3"/>
       <c r="AN44" s="3"/>
       <c r="AO44" s="3"/>
-      <c r="AP44" s="4"/>
-      <c r="AQ44" s="26"/>
+      <c r="AP44" s="3"/>
+      <c r="AQ44" s="4"/>
       <c r="AR44" s="26"/>
-    </row>
-    <row r="45" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AS44" s="26"/>
+    </row>
+    <row r="45" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="30"/>
       <c r="C45" s="31"/>
       <c r="D45" s="31"/>
@@ -4178,9 +4231,10 @@
       <c r="AM45" s="31"/>
       <c r="AN45" s="31"/>
       <c r="AO45" s="31"/>
-      <c r="AP45" s="32"/>
-    </row>
-    <row r="46" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AP45" s="31"/>
+      <c r="AQ45" s="32"/>
+    </row>
+    <row r="46" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="28"/>
       <c r="C46" s="26" t="s">
         <v>12</v>
@@ -4195,10 +4249,10 @@
       <c r="K46" s="26"/>
       <c r="L46" s="26"/>
       <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26" t="s">
-        <v>21</v>
-      </c>
+      <c r="N46" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="O46" s="26"/>
       <c r="P46" s="26"/>
       <c r="Q46" s="26"/>
       <c r="R46" s="26"/>
@@ -4212,7 +4266,7 @@
       <c r="Z46" s="26"/>
       <c r="AA46" s="26"/>
       <c r="AB46" s="26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AC46" s="26"/>
       <c r="AD46" s="26"/>
@@ -4227,192 +4281,208 @@
       <c r="AM46" s="26"/>
       <c r="AN46" s="26"/>
       <c r="AO46" s="26"/>
-      <c r="AP46" s="33"/>
-    </row>
-    <row r="47" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AP46" s="26"/>
+      <c r="AQ46" s="33"/>
+    </row>
+    <row r="47" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="28"/>
       <c r="C47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L47" s="3"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="P47" s="9"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K47" s="3"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="O47" s="10"/>
+      <c r="P47" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="R47" s="10"/>
+      <c r="S47" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="T47" s="9"/>
       <c r="U47" s="9"/>
       <c r="V47" s="10"/>
       <c r="W47" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
       <c r="Z47" s="10"/>
       <c r="AA47" s="26"/>
       <c r="AB47" s="2" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="AC47" s="3"/>
-      <c r="AD47" s="3"/>
+      <c r="AD47" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="AE47" s="3"/>
-      <c r="AF47" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="AF47" s="3"/>
       <c r="AG47" s="3"/>
-      <c r="AH47" s="3"/>
-      <c r="AI47" s="3"/>
-      <c r="AJ47" s="4"/>
-      <c r="AK47" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL47" s="3"/>
-      <c r="AM47" s="3"/>
+      <c r="AH47" s="4"/>
+      <c r="AI47" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ47" s="3"/>
+      <c r="AK47" s="3"/>
+      <c r="AL47" s="4"/>
+      <c r="AM47" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="AN47" s="3"/>
-      <c r="AO47" s="4"/>
-      <c r="AP47" s="33"/>
-    </row>
-    <row r="48" spans="2:44" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AO47" s="3"/>
+      <c r="AP47" s="4"/>
+      <c r="AQ47" s="33"/>
+    </row>
+    <row r="48" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="28"/>
       <c r="C48" s="108" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="17" t="s">
-        <v>18</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D48" s="19"/>
+      <c r="E48" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" s="18"/>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L48" s="18"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="41" t="s">
+      <c r="I48" s="19"/>
+      <c r="J48" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="P48" s="42"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="O48" s="43"/>
+      <c r="P48" s="41" t="s">
+        <v>16</v>
+      </c>
       <c r="Q48" s="42"/>
-      <c r="R48" s="42"/>
-      <c r="S48" s="43"/>
-      <c r="T48" s="41" t="s">
-        <v>17</v>
-      </c>
+      <c r="R48" s="43"/>
+      <c r="S48" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="T48" s="42"/>
       <c r="U48" s="42"/>
       <c r="V48" s="43"/>
       <c r="W48" s="44" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="X48" s="42"/>
       <c r="Y48" s="42"/>
       <c r="Z48" s="43"/>
       <c r="AA48" s="26"/>
       <c r="AB48" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC48" s="42"/>
-      <c r="AD48" s="42"/>
-      <c r="AE48" s="43"/>
-      <c r="AF48" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG48" s="60"/>
-      <c r="AH48" s="42"/>
-      <c r="AI48" s="42"/>
-      <c r="AJ48" s="43"/>
-      <c r="AK48" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL48" s="42"/>
-      <c r="AM48" s="42"/>
-      <c r="AN48" s="60"/>
-      <c r="AO48" s="43"/>
-      <c r="AP48" s="33"/>
-    </row>
-    <row r="49" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="AC48" s="43"/>
+      <c r="AD48" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE48" s="60"/>
+      <c r="AF48" s="42"/>
+      <c r="AG48" s="42"/>
+      <c r="AH48" s="43"/>
+      <c r="AI48" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ48" s="42"/>
+      <c r="AK48" s="60"/>
+      <c r="AL48" s="43"/>
+      <c r="AM48" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN48" s="42"/>
+      <c r="AO48" s="60"/>
+      <c r="AP48" s="43"/>
+      <c r="AQ48" s="33"/>
+    </row>
+    <row r="49" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="28"/>
       <c r="C49" s="109" t="s">
-        <v>31</v>
-      </c>
-      <c r="D49" s="110"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="112" t="s">
-        <v>40</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D49" s="111"/>
+      <c r="E49" s="112" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="110"/>
       <c r="G49" s="110"/>
       <c r="H49" s="110"/>
-      <c r="I49" s="110"/>
-      <c r="J49" s="111"/>
-      <c r="K49" s="112" t="s">
-        <v>41</v>
-      </c>
-      <c r="L49" s="110"/>
-      <c r="M49" s="111"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="P49" s="46"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="112" t="s">
+        <v>35</v>
+      </c>
+      <c r="K49" s="110"/>
+      <c r="L49" s="111"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="O49" s="47"/>
+      <c r="P49" s="45" t="s">
+        <v>16</v>
+      </c>
       <c r="Q49" s="46"/>
-      <c r="R49" s="46"/>
-      <c r="S49" s="47"/>
-      <c r="T49" s="45" t="s">
-        <v>17</v>
-      </c>
+      <c r="R49" s="47"/>
+      <c r="S49" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="T49" s="46"/>
       <c r="U49" s="46"/>
       <c r="V49" s="47"/>
       <c r="W49" s="48" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X49" s="46"/>
       <c r="Y49" s="46"/>
       <c r="Z49" s="47"/>
       <c r="AA49" s="26"/>
       <c r="AB49" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC49" s="58"/>
-      <c r="AD49" s="58"/>
-      <c r="AE49" s="59"/>
-      <c r="AF49" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG49" s="62"/>
-      <c r="AH49" s="58"/>
-      <c r="AI49" s="58"/>
-      <c r="AJ49" s="59"/>
-      <c r="AK49" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL49" s="58"/>
-      <c r="AM49" s="58"/>
-      <c r="AN49" s="62"/>
-      <c r="AO49" s="59"/>
-      <c r="AP49" s="33"/>
-    </row>
-    <row r="50" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+      <c r="AC49" s="59"/>
+      <c r="AD49" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE49" s="62"/>
+      <c r="AF49" s="58"/>
+      <c r="AG49" s="58"/>
+      <c r="AH49" s="59"/>
+      <c r="AI49" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ49" s="58"/>
+      <c r="AK49" s="62"/>
+      <c r="AL49" s="59"/>
+      <c r="AM49" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN49" s="58"/>
+      <c r="AO49" s="62"/>
+      <c r="AP49" s="59"/>
+      <c r="AQ49" s="33"/>
+    </row>
+    <row r="50" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="28"/>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
@@ -4425,49 +4495,54 @@
       <c r="K50" s="26"/>
       <c r="L50" s="26"/>
       <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="P50" s="50"/>
+      <c r="N50" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="O50" s="51"/>
+      <c r="P50" s="49" t="s">
+        <v>15</v>
+      </c>
       <c r="Q50" s="50"/>
-      <c r="R50" s="50"/>
-      <c r="S50" s="51"/>
-      <c r="T50" s="49" t="s">
-        <v>16</v>
-      </c>
+      <c r="R50" s="51"/>
+      <c r="S50" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="T50" s="50"/>
       <c r="U50" s="50"/>
       <c r="V50" s="51"/>
       <c r="W50" s="52" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="X50" s="50"/>
       <c r="Y50" s="50"/>
       <c r="Z50" s="51"/>
       <c r="AA50" s="26"/>
       <c r="AB50" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC50" s="58"/>
-      <c r="AD50" s="58"/>
-      <c r="AE50" s="59"/>
-      <c r="AF50" s="61" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG50" s="62"/>
-      <c r="AH50" s="58"/>
-      <c r="AI50" s="58"/>
-      <c r="AJ50" s="59"/>
-      <c r="AK50" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL50" s="58"/>
-      <c r="AM50" s="58"/>
-      <c r="AN50" s="62"/>
-      <c r="AO50" s="59"/>
-      <c r="AP50" s="33"/>
-    </row>
-    <row r="51" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="AC50" s="59"/>
+      <c r="AD50" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE50" s="62"/>
+      <c r="AF50" s="58"/>
+      <c r="AG50" s="58"/>
+      <c r="AH50" s="59"/>
+      <c r="AI50" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ50" s="58"/>
+      <c r="AK50" s="62"/>
+      <c r="AL50" s="59"/>
+      <c r="AM50" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN50" s="58"/>
+      <c r="AO50" s="62"/>
+      <c r="AP50" s="59"/>
+      <c r="AQ50" s="33"/>
+    </row>
+    <row r="51" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="28"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
@@ -4480,49 +4555,54 @@
       <c r="K51" s="26"/>
       <c r="L51" s="26"/>
       <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="P51" s="54"/>
+      <c r="N51" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="O51" s="55"/>
+      <c r="P51" s="53" t="s">
+        <v>28</v>
+      </c>
       <c r="Q51" s="54"/>
-      <c r="R51" s="54"/>
-      <c r="S51" s="55"/>
-      <c r="T51" s="53" t="s">
-        <v>31</v>
-      </c>
+      <c r="R51" s="55"/>
+      <c r="S51" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="T51" s="54"/>
       <c r="U51" s="54"/>
       <c r="V51" s="55"/>
       <c r="W51" s="56" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="X51" s="54"/>
       <c r="Y51" s="54"/>
       <c r="Z51" s="55"/>
       <c r="AA51" s="26"/>
       <c r="AB51" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC51" s="46"/>
-      <c r="AD51" s="46"/>
-      <c r="AE51" s="47"/>
-      <c r="AF51" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG51" s="63"/>
-      <c r="AH51" s="46"/>
-      <c r="AI51" s="46"/>
-      <c r="AJ51" s="47"/>
-      <c r="AK51" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL51" s="46"/>
-      <c r="AM51" s="46"/>
-      <c r="AN51" s="63"/>
-      <c r="AO51" s="47"/>
-      <c r="AP51" s="33"/>
-    </row>
-    <row r="52" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="AC51" s="47"/>
+      <c r="AD51" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE51" s="63"/>
+      <c r="AF51" s="46"/>
+      <c r="AG51" s="46"/>
+      <c r="AH51" s="47"/>
+      <c r="AI51" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ51" s="46"/>
+      <c r="AK51" s="63"/>
+      <c r="AL51" s="47"/>
+      <c r="AM51" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN51" s="46"/>
+      <c r="AO51" s="63"/>
+      <c r="AP51" s="47"/>
+      <c r="AQ51" s="33"/>
+    </row>
+    <row r="52" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="28"/>
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
@@ -4550,28 +4630,31 @@
       <c r="Z52" s="26"/>
       <c r="AA52" s="26"/>
       <c r="AB52" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC52" s="46"/>
-      <c r="AD52" s="46"/>
-      <c r="AE52" s="47"/>
-      <c r="AF52" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG52" s="63"/>
-      <c r="AH52" s="46"/>
-      <c r="AI52" s="46"/>
-      <c r="AJ52" s="47"/>
-      <c r="AK52" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL52" s="46"/>
-      <c r="AM52" s="46"/>
-      <c r="AN52" s="63"/>
-      <c r="AO52" s="47"/>
-      <c r="AP52" s="33"/>
-    </row>
-    <row r="53" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="AC52" s="47"/>
+      <c r="AD52" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE52" s="63"/>
+      <c r="AF52" s="46"/>
+      <c r="AG52" s="46"/>
+      <c r="AH52" s="47"/>
+      <c r="AI52" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ52" s="46"/>
+      <c r="AK52" s="63"/>
+      <c r="AL52" s="47"/>
+      <c r="AM52" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN52" s="46"/>
+      <c r="AO52" s="63"/>
+      <c r="AP52" s="47"/>
+      <c r="AQ52" s="33"/>
+    </row>
+    <row r="53" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="28"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
@@ -4599,28 +4682,31 @@
       <c r="Z53" s="26"/>
       <c r="AA53" s="26"/>
       <c r="AB53" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC53" s="46"/>
-      <c r="AD53" s="46"/>
-      <c r="AE53" s="47"/>
-      <c r="AF53" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG53" s="63"/>
-      <c r="AH53" s="46"/>
-      <c r="AI53" s="46"/>
-      <c r="AJ53" s="47"/>
-      <c r="AK53" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL53" s="46"/>
-      <c r="AM53" s="46"/>
-      <c r="AN53" s="63"/>
-      <c r="AO53" s="47"/>
-      <c r="AP53" s="33"/>
-    </row>
-    <row r="54" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+      <c r="AC53" s="47"/>
+      <c r="AD53" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE53" s="63"/>
+      <c r="AF53" s="46"/>
+      <c r="AG53" s="46"/>
+      <c r="AH53" s="47"/>
+      <c r="AI53" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ53" s="46"/>
+      <c r="AK53" s="63"/>
+      <c r="AL53" s="47"/>
+      <c r="AM53" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN53" s="46"/>
+      <c r="AO53" s="63"/>
+      <c r="AP53" s="47"/>
+      <c r="AQ53" s="33"/>
+    </row>
+    <row r="54" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="28"/>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
@@ -4648,28 +4734,31 @@
       <c r="Z54" s="26"/>
       <c r="AA54" s="26"/>
       <c r="AB54" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC54" s="51"/>
+      <c r="AD54" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE54" s="64"/>
+      <c r="AF54" s="50"/>
+      <c r="AG54" s="50"/>
+      <c r="AH54" s="51"/>
+      <c r="AI54" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ54" s="50"/>
+      <c r="AK54" s="64"/>
+      <c r="AL54" s="51"/>
+      <c r="AM54" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="AC54" s="50"/>
-      <c r="AD54" s="50"/>
-      <c r="AE54" s="51"/>
-      <c r="AF54" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG54" s="64"/>
-      <c r="AH54" s="50"/>
-      <c r="AI54" s="50"/>
-      <c r="AJ54" s="51"/>
-      <c r="AK54" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL54" s="50"/>
-      <c r="AM54" s="50"/>
-      <c r="AN54" s="64"/>
-      <c r="AO54" s="51"/>
-      <c r="AP54" s="33"/>
-    </row>
-    <row r="55" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AN54" s="50"/>
+      <c r="AO54" s="64"/>
+      <c r="AP54" s="51"/>
+      <c r="AQ54" s="33"/>
+    </row>
+    <row r="55" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="28"/>
       <c r="C55" s="26"/>
       <c r="D55" s="26"/>
@@ -4697,28 +4786,31 @@
       <c r="Z55" s="26"/>
       <c r="AA55" s="26"/>
       <c r="AB55" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC55" s="50"/>
-      <c r="AD55" s="50"/>
-      <c r="AE55" s="51"/>
-      <c r="AF55" s="52" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG55" s="64"/>
-      <c r="AH55" s="50"/>
-      <c r="AI55" s="50"/>
-      <c r="AJ55" s="51"/>
-      <c r="AK55" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL55" s="50"/>
-      <c r="AM55" s="50"/>
-      <c r="AN55" s="64"/>
-      <c r="AO55" s="51"/>
-      <c r="AP55" s="33"/>
-    </row>
-    <row r="56" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="AC55" s="51"/>
+      <c r="AD55" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE55" s="64"/>
+      <c r="AF55" s="50"/>
+      <c r="AG55" s="50"/>
+      <c r="AH55" s="51"/>
+      <c r="AI55" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ55" s="50"/>
+      <c r="AK55" s="64"/>
+      <c r="AL55" s="51"/>
+      <c r="AM55" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN55" s="50"/>
+      <c r="AO55" s="64"/>
+      <c r="AP55" s="51"/>
+      <c r="AQ55" s="33"/>
+    </row>
+    <row r="56" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="28"/>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
@@ -4746,28 +4838,31 @@
       <c r="Z56" s="26"/>
       <c r="AA56" s="26"/>
       <c r="AB56" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC56" s="50"/>
-      <c r="AD56" s="50"/>
-      <c r="AE56" s="51"/>
-      <c r="AF56" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG56" s="64"/>
-      <c r="AH56" s="50"/>
-      <c r="AI56" s="50"/>
-      <c r="AJ56" s="51"/>
-      <c r="AK56" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="AL56" s="50"/>
-      <c r="AM56" s="50"/>
-      <c r="AN56" s="64"/>
-      <c r="AO56" s="51"/>
-      <c r="AP56" s="33"/>
-    </row>
-    <row r="57" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="AC56" s="51"/>
+      <c r="AD56" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE56" s="64"/>
+      <c r="AF56" s="50"/>
+      <c r="AG56" s="50"/>
+      <c r="AH56" s="51"/>
+      <c r="AI56" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ56" s="50"/>
+      <c r="AK56" s="64"/>
+      <c r="AL56" s="51"/>
+      <c r="AM56" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN56" s="50"/>
+      <c r="AO56" s="64"/>
+      <c r="AP56" s="51"/>
+      <c r="AQ56" s="33"/>
+    </row>
+    <row r="57" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="28"/>
       <c r="C57" s="26"/>
       <c r="D57" s="26"/>
@@ -4795,28 +4890,31 @@
       <c r="Z57" s="26"/>
       <c r="AA57" s="26"/>
       <c r="AB57" s="102" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC57" s="103"/>
-      <c r="AD57" s="103"/>
-      <c r="AE57" s="104"/>
-      <c r="AF57" s="102" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG57" s="105"/>
-      <c r="AH57" s="103"/>
-      <c r="AI57" s="103"/>
-      <c r="AJ57" s="104"/>
-      <c r="AK57" s="106" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL57" s="103"/>
-      <c r="AM57" s="103"/>
-      <c r="AN57" s="105"/>
-      <c r="AO57" s="104"/>
-      <c r="AP57" s="33"/>
-    </row>
-    <row r="58" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+      <c r="AC57" s="104"/>
+      <c r="AD57" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE57" s="105"/>
+      <c r="AF57" s="103"/>
+      <c r="AG57" s="103"/>
+      <c r="AH57" s="104"/>
+      <c r="AI57" s="106" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ57" s="103"/>
+      <c r="AK57" s="105"/>
+      <c r="AL57" s="104"/>
+      <c r="AM57" s="106" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN57" s="103"/>
+      <c r="AO57" s="105"/>
+      <c r="AP57" s="104"/>
+      <c r="AQ57" s="33"/>
+    </row>
+    <row r="58" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="28"/>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
@@ -4844,28 +4942,31 @@
       <c r="Z58" s="26"/>
       <c r="AA58" s="26"/>
       <c r="AB58" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC58" s="54"/>
-      <c r="AD58" s="54"/>
-      <c r="AE58" s="55"/>
-      <c r="AF58" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG58" s="107"/>
-      <c r="AH58" s="54"/>
-      <c r="AI58" s="54"/>
-      <c r="AJ58" s="55"/>
-      <c r="AK58" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL58" s="54"/>
-      <c r="AM58" s="54"/>
-      <c r="AN58" s="107"/>
-      <c r="AO58" s="55"/>
-      <c r="AP58" s="33"/>
-    </row>
-    <row r="59" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="AC58" s="55"/>
+      <c r="AD58" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE58" s="107"/>
+      <c r="AF58" s="54"/>
+      <c r="AG58" s="54"/>
+      <c r="AH58" s="55"/>
+      <c r="AI58" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ58" s="54"/>
+      <c r="AK58" s="107"/>
+      <c r="AL58" s="55"/>
+      <c r="AM58" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN58" s="54"/>
+      <c r="AO58" s="107"/>
+      <c r="AP58" s="55"/>
+      <c r="AQ58" s="33"/>
+    </row>
+    <row r="59" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="34"/>
       <c r="C59" s="29"/>
       <c r="D59" s="29"/>
@@ -4906,29 +5007,30 @@
       <c r="AM59" s="29"/>
       <c r="AN59" s="29"/>
       <c r="AO59" s="29"/>
-      <c r="AP59" s="35"/>
-    </row>
-    <row r="62" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AP59" s="29"/>
+      <c r="AQ59" s="35"/>
+    </row>
+    <row r="62" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="36" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4966,7 +5068,7 @@
     <row r="69" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C69" s="17"/>
       <c r="D69" s="113" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E69" s="18"/>
       <c r="F69" s="18"/>
@@ -4978,7 +5080,7 @@
       <c r="L69" s="19"/>
       <c r="N69" s="17"/>
       <c r="O69" s="113" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="P69" s="18"/>
       <c r="Q69" s="18"/>
@@ -4990,7 +5092,7 @@
       <c r="W69" s="19"/>
       <c r="Y69" s="17"/>
       <c r="Z69" s="113" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AA69" s="18"/>
       <c r="AB69" s="18"/>
@@ -5035,84 +5137,84 @@
     </row>
     <row r="71" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C71" s="17"/>
-      <c r="D71" s="131" t="s">
-        <v>77</v>
-      </c>
-      <c r="E71" s="133"/>
+      <c r="D71" s="165" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" s="166"/>
       <c r="F71" s="18"/>
-      <c r="G71" s="131" t="s">
-        <v>77</v>
-      </c>
-      <c r="H71" s="133"/>
+      <c r="G71" s="165" t="s">
+        <v>71</v>
+      </c>
+      <c r="H71" s="166"/>
       <c r="I71" s="18"/>
-      <c r="J71" s="131" t="s">
-        <v>77</v>
-      </c>
-      <c r="K71" s="133"/>
+      <c r="J71" s="165" t="s">
+        <v>71</v>
+      </c>
+      <c r="K71" s="166"/>
       <c r="L71" s="19"/>
       <c r="N71" s="17"/>
-      <c r="O71" s="131" t="s">
-        <v>77</v>
-      </c>
-      <c r="P71" s="133"/>
+      <c r="O71" s="165" t="s">
+        <v>71</v>
+      </c>
+      <c r="P71" s="166"/>
       <c r="Q71" s="18"/>
-      <c r="R71" s="131" t="s">
-        <v>77</v>
-      </c>
-      <c r="S71" s="133"/>
+      <c r="R71" s="165" t="s">
+        <v>71</v>
+      </c>
+      <c r="S71" s="166"/>
       <c r="T71" s="18"/>
-      <c r="U71" s="131" t="s">
-        <v>77</v>
-      </c>
-      <c r="V71" s="133"/>
+      <c r="U71" s="165" t="s">
+        <v>71</v>
+      </c>
+      <c r="V71" s="166"/>
       <c r="W71" s="19"/>
       <c r="Y71" s="17"/>
-      <c r="Z71" s="131" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA71" s="133"/>
+      <c r="Z71" s="165" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA71" s="166"/>
       <c r="AB71" s="18"/>
-      <c r="AC71" s="131" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD71" s="133"/>
+      <c r="AC71" s="165" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD71" s="166"/>
       <c r="AE71" s="18"/>
-      <c r="AF71" s="131" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG71" s="133"/>
+      <c r="AF71" s="165" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG71" s="166"/>
       <c r="AH71" s="19"/>
     </row>
     <row r="72" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C72" s="17"/>
-      <c r="D72" s="134"/>
-      <c r="E72" s="136"/>
+      <c r="D72" s="167"/>
+      <c r="E72" s="168"/>
       <c r="F72" s="18"/>
-      <c r="G72" s="134"/>
-      <c r="H72" s="136"/>
+      <c r="G72" s="167"/>
+      <c r="H72" s="168"/>
       <c r="I72" s="18"/>
-      <c r="J72" s="134"/>
-      <c r="K72" s="136"/>
+      <c r="J72" s="167"/>
+      <c r="K72" s="168"/>
       <c r="L72" s="19"/>
       <c r="N72" s="17"/>
-      <c r="O72" s="134"/>
-      <c r="P72" s="136"/>
+      <c r="O72" s="167"/>
+      <c r="P72" s="168"/>
       <c r="Q72" s="18"/>
-      <c r="R72" s="134"/>
-      <c r="S72" s="136"/>
+      <c r="R72" s="167"/>
+      <c r="S72" s="168"/>
       <c r="T72" s="18"/>
-      <c r="U72" s="134"/>
-      <c r="V72" s="136"/>
+      <c r="U72" s="167"/>
+      <c r="V72" s="168"/>
       <c r="W72" s="19"/>
       <c r="Y72" s="17"/>
-      <c r="Z72" s="134"/>
-      <c r="AA72" s="136"/>
+      <c r="Z72" s="167"/>
+      <c r="AA72" s="168"/>
       <c r="AB72" s="18"/>
-      <c r="AC72" s="134"/>
-      <c r="AD72" s="136"/>
+      <c r="AC72" s="167"/>
+      <c r="AD72" s="168"/>
       <c r="AE72" s="18"/>
-      <c r="AF72" s="134"/>
-      <c r="AG72" s="136"/>
+      <c r="AF72" s="167"/>
+      <c r="AG72" s="168"/>
       <c r="AH72" s="19"/>
     </row>
     <row r="73" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -5187,12 +5289,12 @@
       <c r="B75" s="119"/>
       <c r="C75" s="123"/>
       <c r="D75" s="120" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E75" s="120"/>
       <c r="F75" s="120"/>
       <c r="G75" s="120" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H75" s="120"/>
       <c r="I75" s="120"/>
@@ -5202,12 +5304,12 @@
       <c r="M75" s="120"/>
       <c r="N75" s="123"/>
       <c r="O75" s="120" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="P75" s="120"/>
       <c r="Q75" s="120"/>
       <c r="R75" s="120" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="S75" s="120"/>
       <c r="T75" s="120"/>
@@ -5217,12 +5319,12 @@
       <c r="X75" s="120"/>
       <c r="Y75" s="123"/>
       <c r="Z75" s="120" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="AA75" s="120"/>
       <c r="AB75" s="120"/>
       <c r="AC75" s="120" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AD75" s="120"/>
       <c r="AE75" s="120"/>
@@ -5235,29 +5337,29 @@
       <c r="B76" s="119"/>
       <c r="C76" s="123"/>
       <c r="D76" s="120" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E76" s="120"/>
       <c r="F76" s="120"/>
       <c r="G76" s="120" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H76" s="120"/>
       <c r="I76" s="120"/>
       <c r="J76" s="121" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K76" s="120"/>
       <c r="L76" s="122"/>
       <c r="M76" s="120"/>
       <c r="N76" s="123"/>
       <c r="O76" s="120" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="P76" s="120"/>
       <c r="Q76" s="120"/>
       <c r="R76" s="121" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="S76" s="120"/>
       <c r="T76" s="120"/>
@@ -5267,33 +5369,33 @@
       <c r="X76" s="120"/>
       <c r="Y76" s="123"/>
       <c r="Z76" s="120" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AA76" s="120"/>
       <c r="AB76" s="120"/>
-      <c r="AC76" s="131" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD76" s="132"/>
-      <c r="AE76" s="132"/>
-      <c r="AF76" s="132"/>
-      <c r="AG76" s="133"/>
+      <c r="AC76" s="165" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD76" s="169"/>
+      <c r="AE76" s="169"/>
+      <c r="AF76" s="169"/>
+      <c r="AG76" s="166"/>
       <c r="AH76" s="122"/>
       <c r="AI76" s="124"/>
       <c r="AJ76" s="40" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77" spans="2:36" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="119"/>
       <c r="C77" s="123"/>
       <c r="D77" s="120" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E77" s="120"/>
       <c r="F77" s="120"/>
       <c r="G77" s="120" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="H77" s="120"/>
       <c r="I77" s="120"/>
@@ -5303,12 +5405,12 @@
       <c r="M77" s="120"/>
       <c r="N77" s="123"/>
       <c r="O77" s="120" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="P77" s="120"/>
       <c r="Q77" s="120"/>
       <c r="R77" s="120" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="S77" s="120"/>
       <c r="T77" s="120"/>
@@ -5320,11 +5422,11 @@
       <c r="Z77" s="120"/>
       <c r="AA77" s="120"/>
       <c r="AB77" s="120"/>
-      <c r="AC77" s="134"/>
-      <c r="AD77" s="135"/>
-      <c r="AE77" s="135"/>
-      <c r="AF77" s="135"/>
-      <c r="AG77" s="136"/>
+      <c r="AC77" s="167"/>
+      <c r="AD77" s="170"/>
+      <c r="AE77" s="170"/>
+      <c r="AF77" s="170"/>
+      <c r="AG77" s="168"/>
       <c r="AH77" s="122"/>
       <c r="AI77" s="124"/>
     </row>
@@ -5398,26 +5500,36 @@
     </row>
     <row r="81" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B83" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="AC76:AG77"/>
+    <mergeCell ref="U71:V72"/>
+    <mergeCell ref="Z71:AA72"/>
+    <mergeCell ref="AC71:AD72"/>
+    <mergeCell ref="AF71:AG72"/>
+    <mergeCell ref="J71:K72"/>
+    <mergeCell ref="G71:H72"/>
+    <mergeCell ref="D71:E72"/>
+    <mergeCell ref="O71:P72"/>
+    <mergeCell ref="R71:S72"/>
     <mergeCell ref="U16:AE20"/>
     <mergeCell ref="U22:AE27"/>
     <mergeCell ref="H38:O38"/>
@@ -5433,16 +5545,6 @@
     <mergeCell ref="E28:F30"/>
     <mergeCell ref="H28:O28"/>
     <mergeCell ref="H30:O30"/>
-    <mergeCell ref="J71:K72"/>
-    <mergeCell ref="G71:H72"/>
-    <mergeCell ref="D71:E72"/>
-    <mergeCell ref="O71:P72"/>
-    <mergeCell ref="R71:S72"/>
-    <mergeCell ref="AC76:AG77"/>
-    <mergeCell ref="U71:V72"/>
-    <mergeCell ref="Z71:AA72"/>
-    <mergeCell ref="AC71:AD72"/>
-    <mergeCell ref="AF71:AG72"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
